--- a/about/david_quang_pham-calendar.xlsx
+++ b/about/david_quang_pham-calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\davidquang.github.io\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1D88DB-8643-4668-BA64-218A2F099CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30A18F-DD17-441D-BF3C-56DC643BF3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="81">
   <si>
     <t>Monday</t>
   </si>
@@ -149,10 +149,6 @@
     <t>New Year's Day
 2-3PM Bob Ost's Brunch
 3-6PM Piper Hill's Writer's Group</t>
-  </si>
-  <si>
-    <t>7AM-1PM Work
-5-11PM Work</t>
   </si>
   <si>
     <r>
@@ -221,13 +217,6 @@
   </si>
   <si>
     <t>Travel: Wyoming, MI (Return to NYC on 5/30)</t>
-  </si>
-  <si>
-    <t>7-9PM Glass Bullet Open Mic
-Travel: Wyoming, MI (Return to NYC on 2/18)</t>
-  </si>
-  <si>
-    <t>Due LMDA Conference Presentation</t>
   </si>
   <si>
     <r>
@@ -386,20 +375,6 @@
 7PM wrack zone at The Public</t>
   </si>
   <si>
-    <t>7PM Back to the Future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-9PM NAAP Show </t>
-  </si>
-  <si>
-    <t>4-5PM CreateTheater
-6-8:30PM NAAP Rehearsal</t>
-  </si>
-  <si>
-    <t>Bday
-6-8:30PM NAAP Rehearsal</t>
-  </si>
-  <si>
     <t>Martin Luther King Day
 2-6PM Piper Hill's Writer's Group
 4:30-7PM The QoL Mandate</t>
@@ -409,23 +384,103 @@
 3:30PM-12AM Work</t>
   </si>
   <si>
+    <t>8-9AM RDXL Meeting</t>
+  </si>
+  <si>
+    <t>6-8PM Musical Theatre Factory POC Roundtable
+9:30-11PM Nawfside at The Tank</t>
+  </si>
+  <si>
+    <t>6-8PM Ceremony Honoring Corky Lee at LaMama</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7-10PM Queer Big Apple Corps Band Rehearsal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>6AM Flight to Grand Rapids</t>
+    </r>
+  </si>
+  <si>
     <t>8-9AM RDXL Meeting
-Philly Visit</t>
-  </si>
-  <si>
-    <t>8-9AM RDXL Meeting</t>
+4-5PM CreateTheater
+6-8:30PM NAAP Rehearsal</t>
   </si>
   <si>
     <t>8-9AM RDXL Meeting
-Return: NYC</t>
+4-5PM CreateTheater</t>
+  </si>
+  <si>
+    <t>LMDA Digital Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMDA Digital Conference
+6-9PM NAAP Show
+ </t>
+  </si>
+  <si>
+    <t>LMDA Digital Conference
+??7PM Back to the Future</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+Bday
+6-8:30PM NAAP Rehearsal
+9PM-2AM Stonewall</t>
   </si>
   <si>
     <t>10AM-1PM Harlem Writers United
 12-3PM Islanders 3 in Flushing Town Hall
-5PM-2AM Work</t>
-  </si>
-  <si>
-    <t>6-8PM Musical Theatre Factory POC Roundtable</t>
+4PM-12:30AM Work</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+1-4PM Eva Doherty's Writer's Group</t>
+  </si>
+  <si>
+    <t>12-2PM Eva Doherty's 
+2-6PM Piper Hill's 
+5-7PM Underground 
+7-10PM Queer Big Apple
+9PM-12AM Queering the Gala at Joe's Pub</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+11AM-5PM Work
+6-8:30PM NAAP Rehearsal</t>
+  </si>
+  <si>
+    <t>7AM-1PM Work
+4PM-12AM Work</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+4-11PM Work</t>
+  </si>
+  <si>
+    <t>7-10PM Queer Big Apple Corps Band Rehearsal
+8:30PM-3AM Work</t>
+  </si>
+  <si>
+    <t>4:30-10:30PM Work</t>
+  </si>
+  <si>
+    <t>7PM Stevie and the Real World at Fairchild Theatre, MSU</t>
+  </si>
+  <si>
+    <t>1PM Flight to NYC
+7:30PM Model Minority at The Players Theatre</t>
+  </si>
+  <si>
+    <t>7-10PM Queer Big Apple Corps Band Rehearsal
+7:30-9PM Tiger Beat at Tony Kiser Theatre</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1108,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1224,9 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1676,7 +1734,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1747,20 +1805,20 @@
         <v>33</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,23 +1846,23 @@
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,22 +1890,22 @@
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,25 +1933,25 @@
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1921,13 +1979,13 @@
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -2032,7 +2090,7 @@
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2066,12 +2124,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2104,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2138,7 +2196,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2172,7 +2230,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2300,12 +2358,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2338,7 +2396,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2372,7 +2430,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2406,7 +2464,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
@@ -2536,12 +2594,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2572,7 +2630,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2606,7 +2664,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2640,7 +2698,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>31</v>
@@ -2676,7 +2734,7 @@
     <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>32</v>
@@ -2705,7 +2763,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2775,15 +2833,17 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2814,16 +2874,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,23 +2911,25 @@
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2898,14 +2960,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2933,12 +2995,14 @@
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -2971,8 +3035,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3046,7 +3110,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -3078,12 +3142,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="22" t="s">
@@ -3115,25 +3179,25 @@
     </row>
     <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3164,12 +3228,12 @@
         <v>14</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -3202,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3240,7 +3304,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -3348,15 +3412,15 @@
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="22"/>
     </row>
@@ -3385,10 +3449,10 @@
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3422,7 +3486,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -3456,7 +3520,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3593,20 +3657,20 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3635,18 +3699,18 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3675,7 +3739,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -3713,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -3850,12 +3914,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -3886,7 +3950,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3920,7 +3984,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>19</v>
@@ -3956,7 +4020,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4052,7 +4116,7 @@
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="34" t="s">
@@ -4088,12 +4152,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4124,7 +4188,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4158,7 +4222,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4192,7 +4256,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4329,12 +4393,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4365,7 +4429,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4399,7 +4463,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4433,7 +4497,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4572,12 +4636,12 @@
         <v>24</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4608,7 +4672,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4642,7 +4706,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4676,7 +4740,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>

--- a/about/david_quang_pham-calendar.xlsx
+++ b/about/david_quang_pham-calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\davidquang.github.io\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30A18F-DD17-441D-BF3C-56DC643BF3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3D137-24B3-4255-B7BD-3D557DFD9B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="726" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="726" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="4434" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
   <si>
     <t>Monday</t>
   </si>
@@ -151,38 +151,6 @@
 3-6PM Piper Hill's Writer's Group</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">8PM </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>Turnover: A New Leaf</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Concert Reading</t>
-    </r>
-  </si>
-  <si>
     <t>4-10PM Queer Big Apple Corps Concert at Symphony Space</t>
   </si>
   <si>
@@ -209,66 +177,11 @@
     <t>7:30PM Turnover: A New Leaf at Kalamazoo Playhouse</t>
   </si>
   <si>
-    <t>2PM Turnover: A New Leaf at Kalamazoo Playhouse</t>
-  </si>
-  <si>
     <t>2PM Turnover: A New Leaf at Kalamazoo Playhouse
 Melanie &amp; Kevin's Wedding</t>
   </si>
   <si>
     <t>Travel: Wyoming, MI (Return to NYC on 5/30)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>Turnover: A New Leaf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Rehearsal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12PM Maxwell Paluska Departure at PENN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>Turnover: A New Leaf Rehearsal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:30PM </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t>Shedding the Antlers</t>
-    </r>
   </si>
   <si>
     <t>4-5PM CreateTheater</t>
@@ -384,9 +297,6 @@
 3:30PM-12AM Work</t>
   </si>
   <si>
-    <t>8-9AM RDXL Meeting</t>
-  </si>
-  <si>
     <t>6-8PM Musical Theatre Factory POC Roundtable
 9:30-11PM Nawfside at The Tank</t>
   </si>
@@ -394,8 +304,124 @@
     <t>6-8PM Ceremony Honoring Corky Lee at LaMama</t>
   </si>
   <si>
+    <t>8-9AM RDXL Meeting
+4-5PM CreateTheater
+6-8:30PM NAAP Rehearsal</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+4-5PM CreateTheater</t>
+  </si>
+  <si>
+    <t>LMDA Digital Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMDA Digital Conference
+6-9PM NAAP Show
+ </t>
+  </si>
+  <si>
+    <t>LMDA Digital Conference
+??7PM Back to the Future</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+Bday
+6-8:30PM NAAP Rehearsal
+9PM-2AM Stonewall</t>
+  </si>
+  <si>
+    <t>10AM-1PM Harlem Writers United
+12-3PM Islanders 3 in Flushing Town Hall
+4PM-12:30AM Work</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+1-4PM Eva Doherty's Writer's Group</t>
+  </si>
+  <si>
+    <t>12-2PM Eva Doherty's 
+2-6PM Piper Hill's 
+5-7PM Underground 
+7-10PM Queer Big Apple
+9PM-12AM Queering the Gala at Joe's Pub</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+11AM-5PM Work
+6-8:30PM NAAP Rehearsal</t>
+  </si>
+  <si>
+    <t>7AM-1PM Work
+4PM-12AM Work</t>
+  </si>
+  <si>
+    <t>1PM Flight to NYC
+7:30PM Model Minority at The Players Theatre</t>
+  </si>
+  <si>
+    <t>8-9AM RDXL Meeting
+7PM VVEBS Show at The Broadway
+9:30PM MilkyWay at Green Room 42</t>
+  </si>
+  <si>
+    <t>4-5PM CreateTheater
+6-8:30PM NAAP Rehearsal</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">7-10PM Queer Big Apple Corps Band Rehearsal
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">8-10AM Turnover Rehearsal
+8PM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Turnover: A New Leaf</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Concert Reading</t>
+    </r>
+  </si>
+  <si>
+    <t>2PM Turnover at QTK
+7:30PM Turnover: A New Leaf at Kalamazoo Playhouse</t>
+  </si>
+  <si>
+    <t>12-6PM MUSE Dreamgirls Sitzprobe at Bruno Walter Aud</t>
+  </si>
+  <si>
+    <t>12-6PM MUSE Dreamgirls Sitzprobe at Bruno Walter Aud
+6:30-9PM Go Love Cabaret at Caroll Place</t>
+  </si>
+  <si>
+    <t>4-10PM Work</t>
+  </si>
+  <si>
+    <t>11AM-10PM Work</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-6PM Piper Hill's Writer's Group
+7-10PM Queer Big Apple Corps Band Rehearsal
 </t>
     </r>
     <r>
@@ -409,78 +435,298 @@
     </r>
   </si>
   <si>
-    <t>8-9AM RDXL Meeting
+    <t>2-6PM Piper Hill's Writer's Group
+7-10PM Queer Big Apple Corps Band Rehearsal
+8:30PM-3AM Work</t>
+  </si>
+  <si>
+    <t>3-8PM ASCAP Membership Meeting
+7-9PM Noor Theatre
+4:30-10:30PM Work</t>
+  </si>
+  <si>
+    <t>5PM RDXL House Slam Poetry in Flushing
+7PM USE Evening of Sharing at ArtNY 520 8</t>
+  </si>
+  <si>
+    <t>4-10PM Work
 4-5PM CreateTheater
 6-8:30PM NAAP Rehearsal</t>
   </si>
   <si>
+    <t>5AM-11PM Work</t>
+  </si>
+  <si>
+    <t>7AM-7PM Work</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4-6PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Turnover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Rehearsal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4-8PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Turnover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Rehearsal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12PM Maxwell Paluska Departure at PENN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">4-8PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Turnover Rehearsal</t>
+    </r>
+  </si>
+  <si>
+    <t>10AM HERE Arts Adjudication Meeeting
+7-10PM Queer Big Apple Corps Band Rehearsal</t>
+  </si>
+  <si>
+    <t>12-9PM Work</t>
+  </si>
+  <si>
+    <t>7PM The Makers Ensemble Short Play Fest at the Tank</t>
+  </si>
+  <si>
+    <t>6-8:30PM NAAP Concert 
+7PM The Makers Ensemble Short Play Fest at the Tank</t>
+  </si>
+  <si>
+    <t>4-12PM Work
+7PM The Makers Ensemble Short Play Fest at the Tank</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8-9AM RDXL Meeting
+3PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>A Divine Kerfuffle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at Bloomsdale University  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2-6PM Piper Hill
+7-10PM QBAC Rehearsal
+7:30-9PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tiger Beat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at Tony Kiser Theatre
+1PM Work</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5PM Tira's Bday at Mao
+7PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Spectrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at The 52nd Street Project
+7-10PM Queer Big Apple Corps Band Rehearsal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12PM Kara's BDay at Happy Lamb Hot Pot
+8PM </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fiddler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at Ritz Theatre Company</t>
+    </r>
+  </si>
+  <si>
     <t>8-9AM RDXL Meeting
-4-5PM CreateTheater</t>
-  </si>
-  <si>
-    <t>LMDA Digital Conference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMDA Digital Conference
-6-9PM NAAP Show
- </t>
-  </si>
-  <si>
-    <t>LMDA Digital Conference
-??7PM Back to the Future</t>
+RDXL Photoshoot
+2PM Jordan Richard's Play at Chain Theatre</t>
+  </si>
+  <si>
+    <t>12-4PM Video Editing with Sakile and Eva
+4-10PM Work</t>
   </si>
   <si>
     <t>8-9AM RDXL Meeting
-Bday
-6-8:30PM NAAP Rehearsal
-9PM-2AM Stonewall</t>
-  </si>
-  <si>
-    <t>10AM-1PM Harlem Writers United
-12-3PM Islanders 3 in Flushing Town Hall
-4PM-12:30AM Work</t>
+12PM "Green Bean Casserole" Film Shoot</t>
   </si>
   <si>
     <t>8-9AM RDXL Meeting
-1-4PM Eva Doherty's Writer's Group</t>
-  </si>
-  <si>
-    <t>12-2PM Eva Doherty's 
-2-6PM Piper Hill's 
-5-7PM Underground 
-7-10PM Queer Big Apple
-9PM-12AM Queering the Gala at Joe's Pub</t>
+12-3PM Eva Doherty's Writer's Group
+3-11PM Work</t>
+  </si>
+  <si>
+    <t>1-12PM Work</t>
+  </si>
+  <si>
+    <t>8AM-12PM Work</t>
+  </si>
+  <si>
+    <t>7-9PM Warrior Sisters of Wu at ArtNY</t>
+  </si>
+  <si>
+    <t>Lunar New Year
+2PM CreateTheater NWF</t>
   </si>
   <si>
     <t>8-9AM RDXL Meeting
-11AM-5PM Work
-6-8:30PM NAAP Rehearsal</t>
-  </si>
-  <si>
-    <t>7AM-1PM Work
-4PM-12AM Work</t>
-  </si>
-  <si>
-    <t>8-9AM RDXL Meeting
-4-11PM Work</t>
-  </si>
-  <si>
-    <t>7-10PM Queer Big Apple Corps Band Rehearsal
-8:30PM-3AM Work</t>
-  </si>
-  <si>
-    <t>4:30-10:30PM Work</t>
-  </si>
-  <si>
-    <t>7PM Stevie and the Real World at Fairchild Theatre, MSU</t>
-  </si>
-  <si>
-    <t>1PM Flight to NYC
-7:30PM Model Minority at The Players Theatre</t>
-  </si>
-  <si>
-    <t>7-10PM Queer Big Apple Corps Band Rehearsal
-7:30-9PM Tiger Beat at Tony Kiser Theatre</t>
+7PM Super Bowl with Diana Easter</t>
+  </si>
+  <si>
+    <t>3-7PM Hangout with Max</t>
+  </si>
+  <si>
+    <r>
+      <t>12PM Bus to East Lansing
+5:30PM Dionne O'Dell
+7PM</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Stevie and the Real World</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at Fairchild Theatre, MSU</t>
+    </r>
+  </si>
+  <si>
+    <t>3PM Crane Park
+5PM Irene Kivinen at Sichuan Cuisine
+7PM QTK's "Shedding the Antlers"</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1354,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,9 +1420,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1222,11 +1465,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1733,8 +1976,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1758,7 +2001,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1781,7 +2024,7 @@
       <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
       <c r="C3" s="10">
@@ -1801,31 +2044,31 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>8</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>9</v>
       </c>
       <c r="C5" s="10">
@@ -1846,30 +2089,30 @@
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>15</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>16</v>
       </c>
       <c r="C7" s="10">
@@ -1889,30 +2132,30 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>58</v>
+      <c r="A8" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>22</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>23</v>
       </c>
       <c r="C9" s="10">
@@ -1933,32 +2176,32 @@
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>29</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>30</v>
       </c>
       <c r="C11" s="10">
@@ -1979,13 +2222,13 @@
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -2045,7 +2288,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2090,7 +2333,7 @@
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2102,7 +2345,7 @@
       <c r="A5" s="18">
         <v>7</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>8</v>
       </c>
       <c r="C5" s="10">
@@ -2122,14 +2365,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2138,7 +2381,7 @@
       <c r="A7" s="17">
         <v>14</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>15</v>
       </c>
       <c r="C7" s="10">
@@ -2162,7 +2405,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2174,7 +2417,7 @@
       <c r="A9" s="17">
         <v>21</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>22</v>
       </c>
       <c r="C9" s="10">
@@ -2196,7 +2439,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2208,7 +2451,7 @@
       <c r="A11" s="17">
         <v>28</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>29</v>
       </c>
       <c r="C11" s="10">
@@ -2230,7 +2473,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2281,7 +2524,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2313,10 +2556,10 @@
       <c r="D3" s="4">
         <v>31</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
       <c r="G3" s="21">
@@ -2336,7 +2579,7 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" s="10">
@@ -2356,14 +2599,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2372,7 +2615,7 @@
       <c r="A7" s="17">
         <v>11</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>12</v>
       </c>
       <c r="C7" s="10">
@@ -2396,7 +2639,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2408,7 +2651,7 @@
       <c r="A9" s="17">
         <v>18</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>19</v>
       </c>
       <c r="C9" s="10">
@@ -2430,7 +2673,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2442,7 +2685,7 @@
       <c r="A11" s="17">
         <v>25</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>26</v>
       </c>
       <c r="C11" s="10">
@@ -2464,7 +2707,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
@@ -2517,7 +2760,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2572,7 +2815,7 @@
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>3</v>
       </c>
       <c r="C5" s="10">
@@ -2594,12 +2837,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -2608,7 +2851,7 @@
       <c r="A7" s="17">
         <v>9</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>10</v>
       </c>
       <c r="C7" s="10">
@@ -2630,7 +2873,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -2642,7 +2885,7 @@
       <c r="A9" s="17">
         <v>16</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>17</v>
       </c>
       <c r="C9" s="10">
@@ -2664,7 +2907,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -2676,10 +2919,10 @@
       <c r="A11" s="17">
         <v>23</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>24</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>25</v>
       </c>
       <c r="D11" s="11">
@@ -2698,9 +2941,9 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="22"/>
@@ -2712,7 +2955,7 @@
       <c r="A13" s="17">
         <v>30</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>31</v>
       </c>
       <c r="C13" s="4">
@@ -2734,9 +2977,9 @@
     <row r="14" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="22"/>
@@ -2762,8 +3005,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2787,7 +3030,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2834,23 +3077,23 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>6</v>
       </c>
       <c r="C5" s="10">
@@ -2871,26 +3114,32 @@
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="22" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>12</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>13</v>
       </c>
       <c r="C7" s="10">
@@ -2910,33 +3159,33 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>63</v>
+      <c r="A8" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>19</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>20</v>
       </c>
       <c r="C9" s="10">
@@ -2957,24 +3206,32 @@
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="22" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>26</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>27</v>
       </c>
       <c r="C11" s="10">
@@ -2995,15 +3252,17 @@
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -3035,8 +3294,8 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3060,7 +3319,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3108,9 +3367,11 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="G4" s="22" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H4" s="22"/>
     </row>
@@ -3118,7 +3379,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" s="10">
@@ -3139,17 +3400,23 @@
     </row>
     <row r="6" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+        <v>81</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="E6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
@@ -3158,7 +3425,7 @@
       <c r="A7" s="17">
         <v>11</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>12</v>
       </c>
       <c r="C7" s="10">
@@ -3179,32 +3446,28 @@
     </row>
     <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>46</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>34</v>
+        <v>85</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>18</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>19</v>
       </c>
       <c r="C9" s="10">
@@ -3225,24 +3488,30 @@
     </row>
     <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>25</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>26</v>
       </c>
       <c r="C11" s="10">
@@ -3263,13 +3532,15 @@
     </row>
     <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -3329,7 +3600,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3352,7 +3623,7 @@
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
       <c r="C3" s="10">
@@ -3376,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -3388,7 +3659,7 @@
       <c r="A5" s="17">
         <v>8</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>9</v>
       </c>
       <c r="C5" s="10">
@@ -3412,15 +3683,15 @@
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="22"/>
     </row>
@@ -3428,7 +3699,7 @@
       <c r="A7" s="17">
         <v>15</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>16</v>
       </c>
       <c r="C7" s="10">
@@ -3449,10 +3720,10 @@
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3464,7 +3735,7 @@
       <c r="A9" s="17">
         <v>22</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>23</v>
       </c>
       <c r="C9" s="10">
@@ -3486,7 +3757,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -3498,7 +3769,7 @@
       <c r="A11" s="17">
         <v>29</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>30</v>
       </c>
       <c r="C11" s="4">
@@ -3520,7 +3791,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -3555,8 +3826,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3580,7 +3851,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3623,19 +3894,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>6</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>7</v>
       </c>
       <c r="C5" s="10">
@@ -3650,34 +3921,30 @@
       <c r="F5" s="20">
         <v>11</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>13</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>14</v>
       </c>
       <c r="C7" s="10">
@@ -3692,32 +3959,32 @@
       <c r="F7" s="20">
         <v>18</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>20</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>21</v>
       </c>
       <c r="C9" s="10">
@@ -3732,19 +3999,19 @@
       <c r="F9" s="20">
         <v>25</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="22" t="s">
         <v>13</v>
       </c>
@@ -3753,7 +4020,7 @@
       <c r="A11" s="18">
         <v>27</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>28</v>
       </c>
       <c r="C11" s="10">
@@ -3773,17 +4040,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -3837,7 +4104,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3880,7 +4147,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -3892,7 +4159,7 @@
       <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>4</v>
       </c>
       <c r="C5" s="10">
@@ -3914,12 +4181,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -3928,7 +4195,7 @@
       <c r="A7" s="17">
         <v>10</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>11</v>
       </c>
       <c r="C7" s="10">
@@ -3950,7 +4217,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -3962,10 +4229,10 @@
       <c r="A9" s="17">
         <v>17</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>18</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>19</v>
       </c>
       <c r="D9" s="11">
@@ -3984,9 +4251,9 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="22"/>
@@ -3998,7 +4265,7 @@
       <c r="A11" s="17">
         <v>24</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>25</v>
       </c>
       <c r="C11" s="10">
@@ -4020,7 +4287,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4071,7 +4338,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4094,13 +4361,13 @@
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
       <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>4</v>
       </c>
       <c r="E3" s="12">
@@ -4116,10 +4383,10 @@
     <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="22"/>
@@ -4130,7 +4397,7 @@
       <c r="A5" s="17">
         <v>8</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>9</v>
       </c>
       <c r="C5" s="10">
@@ -4152,12 +4419,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4166,7 +4433,7 @@
       <c r="A7" s="17">
         <v>15</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>16</v>
       </c>
       <c r="C7" s="10">
@@ -4188,7 +4455,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4200,7 +4467,7 @@
       <c r="A9" s="17">
         <v>22</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>23</v>
       </c>
       <c r="C9" s="10">
@@ -4222,7 +4489,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4234,7 +4501,7 @@
       <c r="A11" s="17">
         <v>29</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>30</v>
       </c>
       <c r="C11" s="10">
@@ -4256,7 +4523,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4316,7 +4583,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4371,7 +4638,7 @@
       <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>6</v>
       </c>
       <c r="C5" s="10">
@@ -4393,12 +4660,12 @@
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4407,7 +4674,7 @@
       <c r="A7" s="17">
         <v>12</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>13</v>
       </c>
       <c r="C7" s="10">
@@ -4429,7 +4696,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4441,7 +4708,7 @@
       <c r="A9" s="17">
         <v>19</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>20</v>
       </c>
       <c r="C9" s="10">
@@ -4463,7 +4730,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4475,7 +4742,7 @@
       <c r="A11" s="17">
         <v>26</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>27</v>
       </c>
       <c r="C11" s="10">
@@ -4497,7 +4764,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4557,7 +4824,7 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4612,7 +4879,7 @@
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>3</v>
       </c>
       <c r="C5" s="10">
@@ -4632,16 +4899,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -4650,7 +4917,7 @@
       <c r="A7" s="17">
         <v>9</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>10</v>
       </c>
       <c r="C7" s="10">
@@ -4672,7 +4939,7 @@
     <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -4684,7 +4951,7 @@
       <c r="A9" s="17">
         <v>16</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>17</v>
       </c>
       <c r="C9" s="10">
@@ -4706,7 +4973,7 @@
     <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -4718,7 +4985,7 @@
       <c r="A11" s="17">
         <v>23</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>24</v>
       </c>
       <c r="C11" s="10">
@@ -4740,7 +5007,7 @@
     <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
